--- a/ArchivoExcel.xlsx
+++ b/ArchivoExcel.xlsx
@@ -17,7 +17,7 @@
     <t>05</t>
   </si>
   <si>
-    <t>06</t>
+    <t>0600002</t>
   </si>
   <si>
     <t>2023/06/01</t>
